--- a/database/data/city.xlsx
+++ b/database/data/city.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/Desktop/CS316/316_project/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/Desktop/CS316/316_project/database/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="24560" windowHeight="13460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="City" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,63 +27,369 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Crime</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="118">
+  <si>
+    <t>Amherst</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Ann Arbor</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Berkeley</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Bethlehem</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Binghamton</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Blacksburg</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Bloomington</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Boulder</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Burlington</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Champaign</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Chapel Hill</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Charlottesville</t>
+  </si>
+  <si>
+    <t>Chestnut Hill</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>College Park</t>
+  </si>
+  <si>
+    <t>College Station</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>Coral Gables</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Denver</t>
   </si>
   <si>
     <t>Durham</t>
   </si>
   <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>Boone</t>
-  </si>
-  <si>
-    <t>Davidson</t>
-  </si>
-  <si>
-    <t>Greenville</t>
-  </si>
-  <si>
-    <t>Elon</t>
-  </si>
-  <si>
-    <t>High Point</t>
-  </si>
-  <si>
-    <t>Chapel HIll</t>
-  </si>
-  <si>
-    <t>Wilmington</t>
+    <t>East Lansing</t>
+  </si>
+  <si>
+    <t>Evanston</t>
+  </si>
+  <si>
+    <t>Fort Worth</t>
+  </si>
+  <si>
+    <t>Gainesville</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>Hanover</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>Hoboken</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Iowa City</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Irvine</t>
+  </si>
+  <si>
+    <t>Ithaca</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Malibu</t>
+  </si>
+  <si>
+    <t>Medford</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>Minneapolis</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>New Haven</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Newark</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Norman</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Pasadena</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Piscataway</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>Providence</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>Provo</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Raleigh</t>
+  </si>
+  <si>
+    <t>Rochester</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>Santa Barbara</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>South Bend</t>
+  </si>
+  <si>
+    <t>St. Louis</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Stony Brook</t>
+  </si>
+  <si>
+    <t>Storrs</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Tallahassee</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>University Park</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Waco</t>
+  </si>
+  <si>
+    <t>Waltham</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>West Lafayette</t>
+  </si>
+  <si>
+    <t>Williamsburg</t>
   </si>
   <si>
     <t>Winston-Salem</t>
   </si>
   <si>
-    <t>Greensboro</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
+    <t>Worcester</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -93,19 +399,26 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Inconsolata"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,13 +433,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,151 +718,2698 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="14.5" style="2"/>
+    <col min="1" max="2" width="14.5" style="4"/>
+    <col min="3" max="4" width="14.5" style="6"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="39.83203125" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5">
+        <v>42.373221999999998</v>
+      </c>
+      <c r="D1" s="5">
+        <v>-72.519853999999995</v>
+      </c>
+      <c r="E1" s="1">
+        <v>37819</v>
+      </c>
+      <c r="F1">
+        <v>44.6</v>
+      </c>
+      <c r="G1" s="2">
+        <v>91.7</v>
+      </c>
+      <c r="H1" s="2">
+        <v>63354</v>
+      </c>
+      <c r="I1" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="5">
+        <v>42.280825999999998</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-83.743037999999999</v>
+      </c>
+      <c r="E2" s="1">
+        <v>120782</v>
+      </c>
+      <c r="F2">
+        <v>27.8</v>
+      </c>
+      <c r="G2" s="2">
+        <v>96.4</v>
+      </c>
+      <c r="H2" s="2">
+        <v>55990</v>
+      </c>
+      <c r="I2" s="2">
+        <v>23.4</v>
+      </c>
+      <c r="J2" s="2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="K2" s="1">
+        <v>143.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" s="5">
+        <v>33.951934999999999</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-83.357567000000003</v>
+      </c>
+      <c r="E3" s="1">
+        <v>123371</v>
+      </c>
+      <c r="F3">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="G3" s="2">
+        <v>83.4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>47542</v>
+      </c>
+      <c r="I3" s="2">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>290.10000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>33.748995000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-84.387981999999994</v>
+      </c>
+      <c r="E4" s="1">
+        <v>472522</v>
+      </c>
+      <c r="F4">
+        <v>33.4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>89</v>
+      </c>
+      <c r="H4" s="2">
+        <v>47527</v>
+      </c>
+      <c r="I4" s="2">
+        <v>24.6</v>
+      </c>
+      <c r="J4" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>30.267153</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-97.743060999999997</v>
+      </c>
+      <c r="E5" s="1">
+        <v>947890</v>
+      </c>
+      <c r="F5">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2">
+        <v>95.9</v>
+      </c>
+      <c r="H5" s="2">
+        <v>70652</v>
+      </c>
+      <c r="I5" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="K5" s="1">
+        <v>333.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
+        <v>39.290385000000001</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-76.612189000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>614664</v>
+      </c>
+      <c r="F6">
+        <v>34.6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>82.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>42241</v>
+      </c>
+      <c r="I6" s="2">
+        <v>23.7</v>
+      </c>
+      <c r="J6" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="K6" s="1">
+        <v>698.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
+        <v>37.871592999999997</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-122.272747</v>
+      </c>
+      <c r="E7" s="1">
+        <v>121240</v>
+      </c>
+      <c r="F7">
+        <v>31.4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>95.7</v>
+      </c>
+      <c r="H7" s="2">
+        <v>66237</v>
+      </c>
+      <c r="I7" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="K7" s="1">
+        <v>374.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5">
+        <v>40.625931999999999</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-75.370457999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>673184</v>
+      </c>
+      <c r="F8">
+        <v>35.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>87</v>
+      </c>
+      <c r="H8" s="2">
+        <v>47291</v>
+      </c>
+      <c r="I8" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="J8" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>206.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5">
+        <v>42.098686999999998</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-75.917974000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45672</v>
+      </c>
+      <c r="F9">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="G9" s="2">
+        <v>84.4</v>
+      </c>
+      <c r="H9" s="2">
+        <v>29824</v>
+      </c>
+      <c r="I9" s="2">
+        <v>33.9</v>
+      </c>
+      <c r="J9" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>442.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5">
+        <v>37.229573000000002</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-80.413938999999999</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45038</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="1">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5">
+        <v>39.165325000000003</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-86.526386000000002</v>
+      </c>
+      <c r="E11" s="1">
+        <v>84465</v>
+      </c>
+      <c r="F11">
+        <v>42.5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>96.7</v>
+      </c>
+      <c r="H11" s="2">
+        <v>47083</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="K11" s="1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>42.360081999999998</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-71.058880000000002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>673184</v>
+      </c>
+      <c r="F12">
+        <v>38.6</v>
+      </c>
+      <c r="G12" s="2">
+        <v>74</v>
+      </c>
+      <c r="H12" s="2">
+        <v>24261</v>
+      </c>
+      <c r="I12" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="K12" s="1">
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5">
+        <v>40.014986</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-105.270546</v>
+      </c>
+      <c r="E13" s="1">
+        <v>108090</v>
+      </c>
+      <c r="F13">
+        <v>28.3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>96.3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>58484</v>
+      </c>
+      <c r="I13" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5">
+        <v>42.886446999999997</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-78.878369000000006</v>
+      </c>
+      <c r="E14" s="1">
+        <v>256902</v>
+      </c>
+      <c r="F14">
+        <v>41.8</v>
+      </c>
+      <c r="G14" s="2">
+        <v>84.2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>44922</v>
+      </c>
+      <c r="I14" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5">
+        <v>44.475881999999999</v>
+      </c>
+      <c r="D15" s="5">
+        <v>-73.212072000000006</v>
+      </c>
+      <c r="E15" s="1">
+        <v>42260</v>
+      </c>
+      <c r="F15">
+        <v>38.6</v>
+      </c>
+      <c r="G15" s="2">
+        <v>81.7</v>
+      </c>
+      <c r="H15" s="2">
+        <v>42457</v>
+      </c>
+      <c r="I15" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="J15" s="2">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>42.373615999999998</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-71.109734000000003</v>
+      </c>
+      <c r="E16" s="1">
+        <v>110651</v>
+      </c>
+      <c r="F16">
+        <v>55.5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="H16" s="2">
+        <v>28750</v>
+      </c>
+      <c r="I16" s="2">
+        <v>12</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5">
+        <v>40.116419999999998</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-88.243382999999994</v>
+      </c>
+      <c r="E17" s="1">
+        <v>86637</v>
+      </c>
+      <c r="F17">
+        <v>27.2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>95</v>
+      </c>
+      <c r="H17" s="2">
+        <v>42094</v>
+      </c>
+      <c r="I17" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5">
+        <v>35.913200000000003</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-79.055845000000005</v>
+      </c>
+      <c r="E18" s="1">
+        <v>59246</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5">
+        <v>38.029305999999998</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-78.476678000000007</v>
+      </c>
+      <c r="E19" s="1">
+        <v>46597</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>42.330379999999998</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-71.166186999999994</v>
+      </c>
+      <c r="E20" s="1">
+        <v>40216</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="5">
+        <v>41.878113999999997</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-87.629797999999994</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2704958</v>
+      </c>
+      <c r="F21">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G21" s="2">
+        <v>82.3</v>
+      </c>
+      <c r="H21" s="2">
+        <v>48522</v>
+      </c>
+      <c r="I21" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="J21" s="2">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="5">
+        <v>34.683438000000002</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-82.837365000000005</v>
+      </c>
+      <c r="E22" s="1">
+        <v>16058</v>
+      </c>
+      <c r="F22">
+        <v>23.1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>96.4</v>
+      </c>
+      <c r="H22" s="2">
+        <v>34700</v>
+      </c>
+      <c r="I22" s="2">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="J22" s="2">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5">
+        <v>41.499319999999997</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-81.694361000000001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>385809</v>
+      </c>
+      <c r="F23">
+        <v>28.6</v>
+      </c>
+      <c r="G23" s="2">
+        <v>91.1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>33494</v>
+      </c>
+      <c r="I23" s="2">
+        <v>17</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5">
+        <v>38.989697</v>
+      </c>
+      <c r="D24" s="5">
+        <v>-76.937759999999997</v>
+      </c>
+      <c r="E24" s="1">
+        <v>32275</v>
+      </c>
+      <c r="F24">
+        <v>31</v>
+      </c>
+      <c r="G24" s="2">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="H24" s="2">
+        <v>27570</v>
+      </c>
+      <c r="I24" s="2">
+        <v>38.4</v>
+      </c>
+      <c r="J24" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <v>30.627977000000001</v>
+      </c>
+      <c r="D25" s="5">
+        <v>-96.334406999999999</v>
+      </c>
+      <c r="E25" s="1">
+        <v>112141</v>
+      </c>
+      <c r="F25">
+        <v>22.5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>93.6</v>
+      </c>
+      <c r="H25" s="2">
+        <v>34186</v>
+      </c>
+      <c r="I25" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="J25" s="2">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="5">
+        <v>39.961176000000002</v>
+      </c>
+      <c r="D26" s="5">
+        <v>-82.998794000000004</v>
+      </c>
+      <c r="E26" s="1">
+        <v>860090</v>
+      </c>
+      <c r="F26">
+        <v>33.5</v>
+      </c>
+      <c r="G26" s="2">
+        <v>86.4</v>
+      </c>
+      <c r="H26" s="2">
+        <v>42306</v>
+      </c>
+      <c r="I26" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="J26" s="2">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="5">
+        <v>25.721489999999999</v>
+      </c>
+      <c r="D27" s="5">
+        <v>-80.268383999999998</v>
+      </c>
+      <c r="E27" s="1">
+        <v>50815</v>
+      </c>
+      <c r="F27">
+        <v>41.4</v>
+      </c>
+      <c r="G27" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="H27" s="2">
+        <v>93934</v>
+      </c>
+      <c r="I27" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="J27" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5">
+        <v>32.776663999999997</v>
+      </c>
+      <c r="D28" s="5">
+        <v>-96.796987999999999</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1317929</v>
+      </c>
+      <c r="F28">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G28" s="2">
+        <v>86.8</v>
+      </c>
+      <c r="H28" s="2">
+        <v>49417</v>
+      </c>
+      <c r="I28" s="2">
+        <v>28</v>
+      </c>
+      <c r="J28" s="2">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5">
+        <v>38.544907000000002</v>
+      </c>
+      <c r="D29" s="5">
+        <v>-121.740517</v>
+      </c>
+      <c r="E29" s="1">
+        <v>68111</v>
+      </c>
+      <c r="F29">
+        <v>25.6</v>
+      </c>
+      <c r="G29" s="2">
+        <v>96.1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>56463</v>
+      </c>
+      <c r="I29" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="J29" s="2">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="5">
+        <v>39.739235999999998</v>
+      </c>
+      <c r="D30" s="5">
+        <v>-104.990251</v>
+      </c>
+      <c r="E30" s="1">
+        <v>693060</v>
+      </c>
+      <c r="F30">
+        <v>34.1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>86.1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>53637</v>
+      </c>
+      <c r="I30" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="J30" s="2">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="5">
+        <v>35.994033000000002</v>
+      </c>
+      <c r="D31" s="5">
+        <v>-78.898618999999997</v>
+      </c>
+      <c r="E31" s="1">
         <v>228330</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>17122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="F31">
+        <v>46</v>
+      </c>
+      <c r="G31" s="2">
+        <v>79.3</v>
+      </c>
+      <c r="H31" s="2">
+        <v>40938</v>
+      </c>
+      <c r="I31" s="2">
+        <v>21.7</v>
+      </c>
+      <c r="J31" s="2">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5">
+        <v>42.736978999999998</v>
+      </c>
+      <c r="D32" s="5">
+        <v>-84.483864999999994</v>
+      </c>
+      <c r="E32" s="1">
+        <v>48870</v>
+      </c>
+      <c r="F32">
+        <v>21.3</v>
+      </c>
+      <c r="G32" s="2">
+        <v>96.7</v>
+      </c>
+      <c r="H32" s="2">
+        <v>32981</v>
+      </c>
+      <c r="I32" s="2">
+        <v>43.6</v>
+      </c>
+      <c r="J32" s="2">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="5">
+        <v>42.045071999999998</v>
+      </c>
+      <c r="D33" s="5">
+        <v>-87.687697</v>
+      </c>
+      <c r="E33" s="1">
+        <v>74486</v>
+      </c>
+      <c r="F33">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G33" s="2">
+        <v>94</v>
+      </c>
+      <c r="H33" s="2">
+        <v>70041</v>
+      </c>
+      <c r="I33" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="J33" s="2">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10944</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>84554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="C34" s="5">
+        <v>32.755488</v>
+      </c>
+      <c r="D34" s="5">
+        <v>-97.330765999999997</v>
+      </c>
+      <c r="E34" s="1">
+        <v>741206</v>
+      </c>
+      <c r="F34">
+        <v>31.9</v>
+      </c>
+      <c r="G34" s="2">
+        <v>80.8</v>
+      </c>
+      <c r="H34" s="2">
+        <v>53214</v>
+      </c>
+      <c r="I34" s="2">
+        <v>18.8</v>
+      </c>
+      <c r="J34" s="2">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="5">
+        <v>29.651634000000001</v>
+      </c>
+      <c r="D35" s="5">
+        <v>-82.324826000000002</v>
+      </c>
+      <c r="E35" s="1">
+        <v>124354</v>
+      </c>
+      <c r="F35">
+        <v>25.3</v>
+      </c>
+      <c r="G35" s="2">
+        <v>92.1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>31818</v>
+      </c>
+      <c r="I35" s="2">
+        <v>35.6</v>
+      </c>
+      <c r="J35" s="2">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="5">
+        <v>39.755543000000003</v>
+      </c>
+      <c r="D36" s="5">
+        <v>-105.22110000000001</v>
+      </c>
+      <c r="E36" s="1">
+        <v>20696</v>
+      </c>
+      <c r="F36">
+        <v>30.1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>93.9</v>
+      </c>
+      <c r="H36" s="2">
+        <v>58998</v>
+      </c>
+      <c r="I36" s="2">
+        <v>16.8</v>
+      </c>
+      <c r="J36" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="5">
+        <v>43.702244999999998</v>
+      </c>
+      <c r="D37" s="5">
+        <v>-72.289552999999998</v>
+      </c>
+      <c r="E37" s="1">
+        <v>11260</v>
+      </c>
+      <c r="F37">
+        <v>43</v>
+      </c>
+      <c r="G37" s="2">
+        <v>90</v>
+      </c>
+      <c r="H37" s="2">
+        <v>40341</v>
+      </c>
+      <c r="I37" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="5">
+        <v>40.743991000000001</v>
+      </c>
+      <c r="D38" s="5">
+        <v>-74.032363000000004</v>
+      </c>
+      <c r="E38" s="1">
+        <v>54379</v>
+      </c>
+      <c r="F38">
+        <v>36.4</v>
+      </c>
+      <c r="G38" s="2">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="H38" s="2">
+        <v>52750</v>
+      </c>
+      <c r="I38" s="2">
+        <v>21.9</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="5">
+        <v>29.760427</v>
+      </c>
+      <c r="D39" s="5">
+        <v>-95.369803000000005</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2099451</v>
+      </c>
+      <c r="F39">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G39" s="2">
+        <v>90.2</v>
+      </c>
+      <c r="H39" s="2">
+        <v>50438</v>
+      </c>
+      <c r="I39" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="5">
+        <v>41.661127999999998</v>
+      </c>
+      <c r="D40" s="5">
+        <v>-91.530168000000003</v>
+      </c>
+      <c r="E40" s="1">
+        <v>67862</v>
+      </c>
+      <c r="F40">
+        <v>25.8</v>
+      </c>
+      <c r="G40" s="2">
+        <v>95.1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>42375</v>
+      </c>
+      <c r="I40" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="J40" s="2">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="5">
+        <v>33.684567000000001</v>
+      </c>
+      <c r="D41" s="5">
+        <v>-117.826505</v>
+      </c>
+      <c r="E41" s="1">
+        <v>212375</v>
+      </c>
+      <c r="F41">
+        <v>34.4</v>
+      </c>
+      <c r="G41" s="2">
+        <v>96.3</v>
+      </c>
+      <c r="H41" s="2">
+        <v>92278</v>
+      </c>
+      <c r="I41" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="J41" s="2">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="5">
+        <v>42.443961000000002</v>
+      </c>
+      <c r="D42" s="5">
+        <v>-76.501880999999997</v>
+      </c>
+      <c r="E42" s="1">
+        <v>30756</v>
+      </c>
+      <c r="F42">
+        <v>38.6</v>
+      </c>
+      <c r="G42" s="2">
+        <v>89.2</v>
+      </c>
+      <c r="H42" s="2">
+        <v>39363</v>
+      </c>
+      <c r="I42" s="2">
+        <v>15.9</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="5">
+        <v>34.052233999999999</v>
+      </c>
+      <c r="D43" s="5">
+        <v>-118.243685</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3792621</v>
+      </c>
+      <c r="F43">
+        <v>34.9</v>
+      </c>
+      <c r="G43" s="2">
+        <v>75.5</v>
+      </c>
+      <c r="H43" s="2">
+        <v>50205</v>
+      </c>
+      <c r="I43" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="5">
+        <v>43.073051999999997</v>
+      </c>
+      <c r="D44" s="5">
+        <v>-89.401229999999998</v>
+      </c>
+      <c r="E44" s="1">
+        <v>233209</v>
+      </c>
+      <c r="F44">
+        <v>37.6</v>
+      </c>
+      <c r="G44" s="2">
+        <v>95.7</v>
+      </c>
+      <c r="H44" s="2">
+        <v>92960</v>
+      </c>
+      <c r="I44" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="J44" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="5">
+        <v>34.025922000000001</v>
+      </c>
+      <c r="D45" s="5">
+        <v>-118.779757</v>
+      </c>
+      <c r="E45" s="1">
+        <v>12879</v>
+      </c>
+      <c r="F45">
+        <v>51.4</v>
+      </c>
+      <c r="G45" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="H45" s="2">
+        <v>119659</v>
+      </c>
+      <c r="I45" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="J45" s="2">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="5">
+        <v>42.418430000000001</v>
+      </c>
+      <c r="D46" s="5">
+        <v>-71.106164000000007</v>
+      </c>
+      <c r="E46" s="1">
+        <v>74907</v>
+      </c>
+      <c r="F46">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="G46" s="2">
+        <v>91.5</v>
+      </c>
+      <c r="H46" s="2">
+        <v>76445</v>
+      </c>
+      <c r="I46" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="J46" s="2">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="5">
+        <v>43.038902</v>
+      </c>
+      <c r="D47" s="5">
+        <v>-87.906474000000003</v>
+      </c>
+      <c r="E47" s="1">
+        <v>594833</v>
+      </c>
+      <c r="F47">
+        <v>31.1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>82.1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>35958</v>
+      </c>
+      <c r="I47" s="2">
+        <v>28.7</v>
+      </c>
+      <c r="J47" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="5">
+        <v>44.977753</v>
+      </c>
+      <c r="D48" s="5">
+        <v>-93.265011000000001</v>
+      </c>
+      <c r="E48" s="1">
+        <v>382578</v>
+      </c>
+      <c r="F48">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="G48" s="2">
+        <v>91.3</v>
+      </c>
+      <c r="H48" s="2">
+        <v>44408</v>
+      </c>
+      <c r="I48" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="5">
+        <v>36.162663999999999</v>
+      </c>
+      <c r="D49" s="5">
+        <v>-86.781602000000007</v>
+      </c>
+      <c r="E49" s="1">
+        <v>601222</v>
+      </c>
+      <c r="F49">
+        <v>35.6</v>
+      </c>
+      <c r="G49" s="2">
+        <v>71.2</v>
+      </c>
+      <c r="H49" s="2">
+        <v>29874</v>
+      </c>
+      <c r="I49" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="J49" s="2">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>9419</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>104371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="50" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="5">
+        <v>41.308273999999997</v>
+      </c>
+      <c r="D50" s="5">
+        <v>-72.927884000000006</v>
+      </c>
+      <c r="E50" s="1">
+        <v>129779</v>
+      </c>
+      <c r="F50">
+        <v>30.3</v>
+      </c>
+      <c r="G50" s="2">
+        <v>83</v>
+      </c>
+      <c r="H50" s="2">
+        <v>37192</v>
+      </c>
+      <c r="I50" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="J50" s="2">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="5">
+        <v>29.951066000000001</v>
+      </c>
+      <c r="D51" s="5">
+        <v>-90.071532000000005</v>
+      </c>
+      <c r="E51" s="1">
+        <v>343829</v>
+      </c>
+      <c r="F51">
+        <v>35.4</v>
+      </c>
+      <c r="G51" s="2">
+        <v>85.2</v>
+      </c>
+      <c r="H51" s="2">
+        <v>36792</v>
+      </c>
+      <c r="I51" s="2">
+        <v>27</v>
+      </c>
+      <c r="J51" s="2">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="5">
+        <v>40.712775000000001</v>
+      </c>
+      <c r="D52" s="5">
+        <v>-74.005972999999997</v>
+      </c>
+      <c r="E52" s="1">
+        <v>8175133</v>
+      </c>
+      <c r="F52">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G52" s="2">
+        <v>80.3</v>
+      </c>
+      <c r="H52" s="2">
+        <v>53373</v>
+      </c>
+      <c r="I52" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="J52" s="2">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="5">
+        <v>39.683723000000001</v>
+      </c>
+      <c r="D53" s="5">
+        <v>-75.749656999999999</v>
+      </c>
+      <c r="F53">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G53" s="2">
+        <v>76.5</v>
+      </c>
+      <c r="H53" s="2">
+        <v>34306</v>
+      </c>
+      <c r="I53" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="5">
+        <v>35.222566999999998</v>
+      </c>
+      <c r="D54" s="5">
+        <v>-97.439477999999994</v>
+      </c>
+      <c r="E54" s="1">
+        <v>110925</v>
+      </c>
+      <c r="F54">
+        <v>30.3</v>
+      </c>
+      <c r="G54" s="2">
+        <v>93</v>
+      </c>
+      <c r="H54" s="2">
+        <v>51491</v>
+      </c>
+      <c r="I54" s="2">
+        <v>18</v>
+      </c>
+      <c r="J54" s="2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="5">
+        <v>39.506996999999998</v>
+      </c>
+      <c r="D55" s="5">
+        <v>-84.745231000000004</v>
+      </c>
+      <c r="E55" s="1">
+        <v>22341</v>
+      </c>
+      <c r="F55">
+        <v>39.9</v>
+      </c>
+      <c r="G55" s="2">
+        <v>83.5</v>
+      </c>
+      <c r="H55" s="2">
+        <v>51375</v>
+      </c>
+      <c r="I55" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="J55" s="2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>57233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="C56" s="5">
+        <v>34.147784999999999</v>
+      </c>
+      <c r="D56" s="5">
+        <v>-118.144516</v>
+      </c>
+      <c r="E56" s="1">
+        <v>137222</v>
+      </c>
+      <c r="F56">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="G56" s="2">
+        <v>87.4</v>
+      </c>
+      <c r="H56" s="2">
+        <v>72402</v>
+      </c>
+      <c r="I56" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="J56" s="2">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="5">
+        <v>39.952584000000002</v>
+      </c>
+      <c r="D57" s="5">
+        <v>-75.165222</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1526006</v>
+      </c>
+      <c r="F57">
+        <v>32.9</v>
+      </c>
+      <c r="G57" s="2">
+        <v>76</v>
+      </c>
+      <c r="H57" s="2">
+        <v>30911</v>
+      </c>
+      <c r="I57" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="5">
+        <v>40.554887000000001</v>
+      </c>
+      <c r="D58" s="5">
+        <v>-74.464286000000001</v>
+      </c>
+      <c r="E58" s="1">
+        <v>50482</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="5">
+        <v>40.440624999999997</v>
+      </c>
+      <c r="D59" s="5">
+        <v>-79.995885999999999</v>
+      </c>
+      <c r="E59" s="1">
+        <v>305704</v>
+      </c>
+      <c r="F59">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G59" s="2">
+        <v>91.4</v>
+      </c>
+      <c r="H59" s="2">
+        <v>40715</v>
+      </c>
+      <c r="I59" s="2">
+        <v>22.9</v>
+      </c>
+      <c r="J59" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="5">
+        <v>40.357298</v>
+      </c>
+      <c r="D60" s="5">
+        <v>-74.667223000000007</v>
+      </c>
+      <c r="E60" s="1">
+        <v>16265</v>
+      </c>
+      <c r="F60">
+        <v>46.1</v>
+      </c>
+      <c r="G60" s="2">
+        <v>93.3</v>
+      </c>
+      <c r="H60" s="2">
+        <v>44722</v>
+      </c>
+      <c r="I60" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="J60" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="5">
+        <v>41.823988999999997</v>
+      </c>
+      <c r="D61" s="5">
+        <v>-71.412834000000004</v>
+      </c>
+      <c r="E61" s="1">
+        <v>178042</v>
+      </c>
+      <c r="F61">
+        <v>42.3</v>
+      </c>
+      <c r="G61" s="2">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="H61" s="2">
+        <v>29459</v>
+      </c>
+      <c r="I61" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="5">
+        <v>40.233843999999998</v>
+      </c>
+      <c r="D62" s="5">
+        <v>-111.658534</v>
+      </c>
+      <c r="E62" s="1">
+        <v>112488</v>
+      </c>
+      <c r="F62">
+        <v>23.7</v>
+      </c>
+      <c r="G62" s="2">
+        <v>90.5</v>
+      </c>
+      <c r="H62" s="2">
+        <v>41291</v>
+      </c>
+      <c r="I62" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="J62" s="2">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="5">
+        <v>35.779589999999999</v>
+      </c>
+      <c r="D63" s="5">
+        <v>-78.638178999999994</v>
+      </c>
+      <c r="E63" s="1">
+        <v>403892</v>
+      </c>
+      <c r="F63">
+        <v>32.5</v>
+      </c>
+      <c r="G63" s="2">
+        <v>90.5</v>
+      </c>
+      <c r="H63" s="2">
+        <v>55398</v>
+      </c>
+      <c r="I63" s="2">
+        <v>16</v>
+      </c>
+      <c r="J63" s="2">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="5">
+        <v>43.161029999999997</v>
+      </c>
+      <c r="D64" s="5">
+        <v>-77.610922000000002</v>
+      </c>
+      <c r="E64" s="1">
+        <v>210565</v>
+      </c>
+      <c r="F64">
+        <v>44.7</v>
+      </c>
+      <c r="G64" s="2">
+        <v>86</v>
+      </c>
+      <c r="H64" s="2">
+        <v>36692</v>
+      </c>
+      <c r="I64" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="5">
+        <v>32.715738000000002</v>
+      </c>
+      <c r="D65" s="5">
+        <v>-117.161084</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1307402</v>
+      </c>
+      <c r="F65">
+        <v>34</v>
+      </c>
+      <c r="G65" s="2">
+        <v>87.3</v>
+      </c>
+      <c r="H65" s="2">
+        <v>66116</v>
+      </c>
+      <c r="I65" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="J65" s="2">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="5">
+        <v>34.420831</v>
+      </c>
+      <c r="D66" s="5">
+        <v>-119.69819</v>
+      </c>
+      <c r="E66" s="1">
+        <v>88410</v>
+      </c>
+      <c r="F66">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G66" s="2">
+        <v>84.1</v>
+      </c>
+      <c r="H66" s="2">
+        <v>66107</v>
+      </c>
+      <c r="I66" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="J66" s="2">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="5">
+        <v>36.974117</v>
+      </c>
+      <c r="D67" s="5">
+        <v>-122.030796</v>
+      </c>
+      <c r="E67" s="1">
+        <v>64465</v>
+      </c>
+      <c r="F67">
+        <v>28.7</v>
+      </c>
+      <c r="G67" s="2">
+        <v>92.8</v>
+      </c>
+      <c r="H67" s="2">
+        <v>62164</v>
+      </c>
+      <c r="I67" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="J67" s="2">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="5">
+        <v>47.606209</v>
+      </c>
+      <c r="D68" s="5">
+        <v>-122.332071</v>
+      </c>
+      <c r="E68" s="1">
+        <v>608660</v>
+      </c>
+      <c r="F68">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G68" s="2">
+        <v>93.4</v>
+      </c>
+      <c r="H68" s="2">
+        <v>70594</v>
+      </c>
+      <c r="I68" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="J68" s="2">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A69" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" s="5">
+        <v>41.676355000000001</v>
+      </c>
+      <c r="D69" s="5">
+        <v>-86.251990000000006</v>
+      </c>
+      <c r="E69" s="1">
+        <v>101168</v>
+      </c>
+      <c r="F69">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G69" s="2">
+        <v>83.5</v>
+      </c>
+      <c r="H69" s="2">
+        <v>34523</v>
+      </c>
+      <c r="I69" s="2">
+        <v>28.3</v>
+      </c>
+      <c r="J69" s="2">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A70" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="5">
+        <v>38.627003000000002</v>
+      </c>
+      <c r="D70" s="5">
+        <v>-90.199404000000001</v>
+      </c>
+      <c r="E70" s="1">
+        <v>319294</v>
+      </c>
+      <c r="F70">
+        <v>34.6</v>
+      </c>
+      <c r="G70" s="2">
+        <v>84.3</v>
+      </c>
+      <c r="H70" s="2">
+        <v>34524</v>
+      </c>
+      <c r="I70" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A71" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="5">
+        <v>37.424106000000002</v>
+      </c>
+      <c r="D71" s="5">
+        <v>-122.166076</v>
+      </c>
+      <c r="E71" s="1">
+        <v>13809</v>
+      </c>
+      <c r="F71">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G71" s="2">
+        <v>83.8</v>
+      </c>
+      <c r="H71" s="2">
+        <v>21875</v>
+      </c>
+      <c r="I71" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A72" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="5">
+        <v>40.925654000000002</v>
+      </c>
+      <c r="D72" s="5">
+        <v>-73.140942999999993</v>
+      </c>
+      <c r="E72" s="1">
+        <v>13740</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A73" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="5">
+        <v>41.808430999999999</v>
+      </c>
+      <c r="D73" s="5">
+        <v>-72.249522999999996</v>
+      </c>
+      <c r="E73" s="1">
+        <v>15344</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="5">
+        <v>43.048121999999999</v>
+      </c>
+      <c r="D74" s="5">
+        <v>-76.147424000000001</v>
+      </c>
+      <c r="E74" s="1">
+        <v>145170</v>
+      </c>
+      <c r="F74">
+        <v>33.4</v>
+      </c>
+      <c r="G74" s="2">
+        <v>77</v>
+      </c>
+      <c r="H74" s="2">
+        <v>44107</v>
+      </c>
+      <c r="I74" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="J74" s="2">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A75" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="5">
+        <v>30.438255999999999</v>
+      </c>
+      <c r="D75" s="5">
+        <v>-84.280732999999998</v>
+      </c>
+      <c r="E75" s="1">
+        <v>181376</v>
+      </c>
+      <c r="F75">
+        <v>26.2</v>
+      </c>
+      <c r="G75" s="2">
+        <v>92.5</v>
+      </c>
+      <c r="H75" s="2">
+        <v>39681</v>
+      </c>
+      <c r="I75" s="2">
+        <v>29.7</v>
+      </c>
+      <c r="J75" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="5">
+        <v>42.728411999999999</v>
+      </c>
+      <c r="D76" s="5">
+        <v>-73.691784999999996</v>
+      </c>
+      <c r="F76">
+        <v>25.6</v>
+      </c>
+      <c r="G76" s="2">
+        <v>83.7</v>
+      </c>
+      <c r="H76" s="2">
+        <v>31707</v>
+      </c>
+      <c r="I76" s="2">
+        <v>31.1</v>
+      </c>
+      <c r="J76" s="2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="5">
+        <v>36.153981999999999</v>
+      </c>
+      <c r="D77" s="5">
+        <v>-95.992774999999995</v>
+      </c>
+      <c r="E77" s="1">
+        <v>391906</v>
+      </c>
+      <c r="F77">
+        <v>34.9</v>
+      </c>
+      <c r="G77" s="2">
+        <v>86.9</v>
+      </c>
+      <c r="H77" s="2">
+        <v>42284</v>
+      </c>
+      <c r="I77" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="J77" s="2">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="5">
+        <v>40.814796000000001</v>
+      </c>
+      <c r="D78" s="5">
+        <v>-77.865313</v>
+      </c>
+      <c r="F78">
+        <v>27.1</v>
+      </c>
+      <c r="G78" s="2">
+        <v>91.4</v>
+      </c>
+      <c r="H78" s="2">
+        <v>46719</v>
+      </c>
+      <c r="I78" s="2">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>106476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="J78" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>229617</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
-        <v>269666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>731424</v>
+      <c r="C79" s="5">
+        <v>40.037582999999998</v>
+      </c>
+      <c r="D79" s="5">
+        <v>-75.349181000000002</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="5">
+        <v>31.549333000000001</v>
+      </c>
+      <c r="D80" s="5">
+        <v>-97.14667</v>
+      </c>
+      <c r="E80" s="1">
+        <v>124805</v>
+      </c>
+      <c r="F80">
+        <v>44</v>
+      </c>
+      <c r="G80" s="2">
+        <v>70.2</v>
+      </c>
+      <c r="H80" s="2">
+        <v>35781</v>
+      </c>
+      <c r="I80" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="5">
+        <v>42.376485000000002</v>
+      </c>
+      <c r="D81" s="5">
+        <v>-71.235611000000006</v>
+      </c>
+      <c r="F81">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G81" s="2">
+        <v>90.1</v>
+      </c>
+      <c r="H81" s="2">
+        <v>75205</v>
+      </c>
+      <c r="I81" s="2">
+        <v>10</v>
+      </c>
+      <c r="J81" s="2">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="5">
+        <v>38.907192000000002</v>
+      </c>
+      <c r="D82" s="5">
+        <v>-77.036871000000005</v>
+      </c>
+      <c r="E82" s="1">
+        <v>601723</v>
+      </c>
+      <c r="F82">
+        <v>49.2</v>
+      </c>
+      <c r="G82" s="2">
+        <v>85.9</v>
+      </c>
+      <c r="H82" s="2">
+        <v>36875</v>
+      </c>
+      <c r="I82" s="2">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A83" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="5">
+        <v>40.425868999999999</v>
+      </c>
+      <c r="D83" s="5">
+        <v>-86.908066000000005</v>
+      </c>
+      <c r="F83">
+        <v>21.8</v>
+      </c>
+      <c r="G83" s="2">
+        <v>93.9</v>
+      </c>
+      <c r="H83" s="2">
+        <v>27527</v>
+      </c>
+      <c r="I83" s="2">
+        <v>42.1</v>
+      </c>
+      <c r="J83" s="2">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A84" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="5">
+        <v>37.270702</v>
+      </c>
+      <c r="D84" s="5">
+        <v>-76.707457000000005</v>
+      </c>
+      <c r="F84">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="G84" s="2">
+        <v>91.9</v>
+      </c>
+      <c r="H84" s="2">
+        <v>54367</v>
+      </c>
+      <c r="I84" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="J84" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="5">
+        <v>36.09986</v>
+      </c>
+      <c r="D85" s="5">
+        <v>-80.244215999999994</v>
+      </c>
+      <c r="F85">
+        <v>34.6</v>
+      </c>
+      <c r="G85" s="2">
+        <v>85.1</v>
+      </c>
+      <c r="H85" s="2">
+        <v>39882</v>
+      </c>
+      <c r="I85" s="2">
+        <v>24.8</v>
+      </c>
+      <c r="J85" s="2">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A86" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="5">
+        <v>42.262593000000003</v>
+      </c>
+      <c r="D86" s="5">
+        <v>-71.802293000000006</v>
+      </c>
+      <c r="E86" s="1">
+        <v>181045</v>
+      </c>
+      <c r="F86">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G86" s="2">
+        <v>84.1</v>
+      </c>
+      <c r="H86" s="2">
+        <v>45472</v>
+      </c>
+      <c r="I86" s="2">
+        <v>22.4</v>
+      </c>
+      <c r="J86" s="2">
+        <v>21.9</v>
       </c>
     </row>
   </sheetData>
